--- a/data/trans_dic/P1805_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Provincia-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.03658098708504151</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.009864286942020219</v>
+        <v>0.00986428694202022</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.07271327527060412</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02598123253732369</v>
+        <v>0.0259812325373237</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05449024839311715</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01882837645532474</v>
+        <v>0.01655621667491331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002707892529493642</v>
+        <v>0.002706395092539546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04735669171682985</v>
+        <v>0.04644052071281347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01508405842366976</v>
+        <v>0.01635444595983033</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03655135510882365</v>
+        <v>0.03765938634392622</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01128772598268545</v>
+        <v>0.01103391378683029</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06512273665131392</v>
+        <v>0.06432711787037207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02724331172617178</v>
+        <v>0.02612741822434419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1110758460268521</v>
+        <v>0.1111971785866382</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04140284242498483</v>
+        <v>0.04144196537139704</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07602934007290764</v>
+        <v>0.07595828537830447</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02931130506646035</v>
+        <v>0.02967769372339992</v>
       </c>
     </row>
     <row r="7">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01946730420292669</v>
+        <v>0.02011205123898406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005587715093280574</v>
+        <v>0.00390942268556229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02612387581982752</v>
+        <v>0.02462638358085565</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003878111694853687</v>
+        <v>0.00383067451532741</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02705127229901696</v>
+        <v>0.02665857088918899</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01416368427671692</v>
+        <v>0.01218934906912016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06270479520017989</v>
+        <v>0.06292259689135031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02521568292544595</v>
+        <v>0.02503730161537623</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05976376567586737</v>
+        <v>0.05966636491699206</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01474245270109947</v>
+        <v>0.01496059299293078</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05327245519141881</v>
+        <v>0.05268341707748622</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006039029484968345</v>
+        <v>0.006231740349518384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01621345752265308</v>
+        <v>0.01704692507002416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02233425447105267</v>
+        <v>0.02463954473786864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03588480030783989</v>
+        <v>0.0357871852071474</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01862894009869637</v>
+        <v>0.01845976316331855</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03183089816027006</v>
+        <v>0.03178778789587551</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03656584332680619</v>
+        <v>0.03891979573176686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06137031153802678</v>
+        <v>0.06467437819581888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07444509171688884</v>
+        <v>0.07435790666612806</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07455129765124596</v>
+        <v>0.07513389598492388</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04838852617268972</v>
+        <v>0.04632363183074267</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06149280645564112</v>
+        <v>0.06079072457425745</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.02496004640062954</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05768336053191614</v>
+        <v>0.05768336053191615</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.03246313314174519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05830162264124582</v>
+        <v>0.05830162264124585</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02879739135207695</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01164971744938695</v>
+        <v>0.01179739850891375</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03262921211889599</v>
+        <v>0.03099606839819306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01811156775513472</v>
+        <v>0.01635123216760628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03924959040154345</v>
+        <v>0.04034488760954392</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01769717385444576</v>
+        <v>0.01841345381106845</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04373798943672347</v>
+        <v>0.04199965245898628</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04510994004758768</v>
+        <v>0.04526880422177389</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09256160945293446</v>
+        <v>0.09636129967398764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05417749312239525</v>
+        <v>0.05379565677190644</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08820508692255111</v>
+        <v>0.08728976082530399</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04415917505933924</v>
+        <v>0.04420625169064148</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08026901252453071</v>
+        <v>0.08200620840387124</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0112724653581171</v>
+        <v>0.009548232203734538</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004431922068298448</v>
+        <v>0.004373103942758686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0070792939003458</v>
+        <v>0.007355138736601728</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01124383449238751</v>
+        <v>0.01098514411006104</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005415183253126051</v>
+        <v>0.00568056318727147</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06147037026652031</v>
+        <v>0.062282319421204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02506232698133928</v>
+        <v>0.02196103969046888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03944452110328254</v>
+        <v>0.04279081660605079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02947417598767586</v>
+        <v>0.0275540536134031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04250847005066003</v>
+        <v>0.04297670849820556</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0201467411394843</v>
+        <v>0.02015785070781665</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.038698095503243</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03503661210598517</v>
+        <v>0.03503661210598515</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02525006194834255</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003687930367964035</v>
+        <v>0.003680684675636707</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01187267708025053</v>
+        <v>0.01278625324358156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01977613001083879</v>
+        <v>0.01933132773194386</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02100472518580425</v>
+        <v>0.02085645821389008</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01368188556230275</v>
+        <v>0.01369595174370646</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01982988946387347</v>
+        <v>0.02006713921554658</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03248400710472867</v>
+        <v>0.0303098873606505</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04425471340519962</v>
+        <v>0.04769169646556157</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0678417777447745</v>
+        <v>0.06658254822571885</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05596839280727947</v>
+        <v>0.05553802181110402</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04307099753253284</v>
+        <v>0.04041966806315424</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04338407894611454</v>
+        <v>0.0448600962839831</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.02233284838897726</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.05637977375358563</v>
+        <v>0.05637977375358562</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003416388417395704</v>
+        <v>0.00345900295393145</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03035037920392437</v>
+        <v>0.03094786010528581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02194934920123019</v>
+        <v>0.02185429338572179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04839283849066696</v>
+        <v>0.05047035439119296</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01486054400775555</v>
+        <v>0.01476877802796777</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04488042007974456</v>
+        <v>0.04447074176077942</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02086867591974759</v>
+        <v>0.01959950555331732</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07370137522604289</v>
+        <v>0.07393585495237741</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05184283820514309</v>
+        <v>0.05090368002090828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08728526256148922</v>
+        <v>0.08613190128761081</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03165581150638517</v>
+        <v>0.03217794082512326</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07273657148323169</v>
+        <v>0.07186807386773272</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01517819721542856</v>
+        <v>0.01473016168057315</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01510584725849819</v>
+        <v>0.0144796488979614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03271138197877905</v>
+        <v>0.03135047042145869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01759594198807117</v>
+        <v>0.01788857507800328</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02660292436274769</v>
+        <v>0.02617051247132621</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01827147964828759</v>
+        <v>0.01844232861641039</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03806161534109477</v>
+        <v>0.03697669582119613</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03822448820981215</v>
+        <v>0.03796256527290849</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06534829658542732</v>
+        <v>0.06336524334983676</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03713105403403429</v>
+        <v>0.03725470458041364</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04676790571496046</v>
+        <v>0.04511005731158495</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03422995758132873</v>
+        <v>0.03376335775673904</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5531</v>
+        <v>4864</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>863</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13672</v>
+        <v>13408</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4767</v>
+        <v>5169</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21290</v>
+        <v>21935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7167</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19131</v>
+        <v>18897</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8686</v>
+        <v>8331</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32068</v>
+        <v>32103</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13086</v>
+        <v>13098</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18610</v>
+        <v>18843</v>
       </c>
     </row>
     <row r="8">
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10330</v>
+        <v>10672</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2923</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14243</v>
+        <v>13427</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3978</v>
+        <v>3929</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29103</v>
+        <v>28681</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7118</v>
+        <v>6126</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33274</v>
+        <v>33390</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13190</v>
+        <v>13097</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32584</v>
+        <v>32531</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15121</v>
+        <v>15344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57314</v>
+        <v>56680</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1924</v>
+        <v>1985</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5123</v>
+        <v>5387</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7511</v>
+        <v>8287</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12789</v>
+        <v>12754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12200</v>
+        <v>12089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21402</v>
+        <v>21373</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11649</v>
+        <v>12398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19393</v>
+        <v>20437</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25037</v>
+        <v>25007</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26569</v>
+        <v>26776</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31688</v>
+        <v>30336</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41346</v>
+        <v>40874</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4310</v>
+        <v>4365</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12175</v>
+        <v>11566</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7014</v>
+        <v>6333</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16562</v>
+        <v>17024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13401</v>
+        <v>13944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34776</v>
+        <v>33394</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16689</v>
+        <v>16748</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34539</v>
+        <v>35957</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20982</v>
+        <v>20834</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37219</v>
+        <v>36833</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33439</v>
+        <v>33475</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>63822</v>
+        <v>65204</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2381</v>
+        <v>2017</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1609</v>
+        <v>1671</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4833</v>
+        <v>4722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2344</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12984</v>
+        <v>13155</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5154</v>
+        <v>4517</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8622</v>
+        <v>9354</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6697</v>
+        <v>6261</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18270</v>
+        <v>18472</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8721</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3214</v>
+        <v>3461</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5401</v>
+        <v>5280</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5540</v>
+        <v>5501</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>7337</v>
+        <v>7344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>10598</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8547</v>
+        <v>7975</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11980</v>
+        <v>12910</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18529</v>
+        <v>18185</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14762</v>
+        <v>14648</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23096</v>
+        <v>21675</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23187</v>
+        <v>23976</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2243</v>
+        <v>2271</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21843</v>
+        <v>22273</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15173</v>
+        <v>15108</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37362</v>
+        <v>38966</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20030</v>
+        <v>19906</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>66950</v>
+        <v>66339</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13701</v>
+        <v>12868</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53042</v>
+        <v>53211</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>35839</v>
+        <v>35189</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>67389</v>
+        <v>66499</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>42667</v>
+        <v>43371</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>108504</v>
+        <v>107209</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11817</v>
+        <v>11469</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12056</v>
+        <v>11556</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27025</v>
+        <v>25901</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14628</v>
+        <v>14871</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>42691</v>
+        <v>41997</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>29772</v>
+        <v>30050</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>29634</v>
+        <v>28789</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30506</v>
+        <v>30297</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>53989</v>
+        <v>52350</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>30868</v>
+        <v>30971</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>75051</v>
+        <v>72390</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>55774</v>
+        <v>55014</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
     </row>
     <row r="40">
